--- a/biology/Zoologie/Hynobius_lichenatus/Hynobius_lichenatus.xlsx
+++ b/biology/Zoologie/Hynobius_lichenatus/Hynobius_lichenatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hynobius lichenatus est une espèce d'urodèles de la famille des Hynobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hynobius lichenatus est une espèce d'urodèles de la famille des Hynobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Honshū au Japon. Elle se rencontre dans les préfectures d'Aomori, d'Iwate, d'Akita, de Yamagata, de Miyagi, de Fukushima, de Niigata, de Tochigi, d'Ibaraki et de Gunma du niveau de la mer à 1 500 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Honshū au Japon. Elle se rencontre dans les préfectures d'Aomori, d'Iwate, d'Akita, de Yamagata, de Miyagi, de Fukushima, de Niigata, de Tochigi, d'Ibaraki et de Gunma du niveau de la mer à 1 500 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hynobius lichenatus mesure de 50 à 70 mm sans la queue et de 90 à 140 mm de longueur totale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hynobius lichenatus mesure de 50 à 70 mm sans la queue et de 90 à 140 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1883 : Description of new species of reptiles and batrachians in the British Museum. Annals and Magazine of Natural History, sér. 5, vol. 12, p. 161-167 (texte intégral).</t>
         </is>
